--- a/Sample report check.xlsx
+++ b/Sample report check.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>US</t>
   </si>
@@ -184,12 +184,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -270,7 +282,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -282,8 +294,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -291,6 +301,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -573,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -607,34 +622,34 @@
       <c r="D1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -648,44 +663,44 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12">
         <v>100</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>1.177</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <f>E2*I2*(1+H2)</f>
         <v>119.75975000000001</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>120</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="11">
         <f>E2*I2</f>
         <v>117.7</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="11">
         <f>(K2-L2)/L2</f>
         <v>1.9541206457094284E-2</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="11">
         <f>M2-H2</f>
         <v>2.0412064570942828E-3</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -697,44 +712,44 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12">
         <v>100</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="11">
         <v>1.177</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <f t="shared" ref="J3:J13" si="0">E3*I3*(1+H3)</f>
         <v>123.11420000000001</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="11">
         <v>124</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="11">
         <f t="shared" ref="L3:L13" si="1">E3*I3</f>
         <v>117.7</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="11">
         <f t="shared" ref="M3:M13" si="2">(K3-L3)/L3</f>
         <v>5.3525913338997429E-2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N13" si="3">M3-H3</f>
         <v>7.5259133389974295E-3</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -746,44 +761,44 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
         <v>100</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>1.177</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
         <v>123.11420000000001</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>123</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="11">
         <f t="shared" si="1"/>
         <v>117.7</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="11">
         <f t="shared" si="2"/>
         <v>4.5029736618521637E-2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f t="shared" si="3"/>
         <v>-9.7026338147836177E-4</v>
       </c>
-      <c r="O4" s="17"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -795,44 +810,44 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12">
         <v>100</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="11">
         <v>1.177</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>123.11420000000001</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="11">
         <v>124</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="11">
         <f t="shared" si="1"/>
         <v>117.7</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="11">
         <f t="shared" si="2"/>
         <v>5.3525913338997429E-2</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <f t="shared" si="3"/>
         <v>7.5259133389974295E-3</v>
       </c>
-      <c r="O5" s="17"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -844,40 +859,40 @@
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12">
         <v>100</v>
       </c>
-      <c r="F6" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="11">
         <v>2.75E-2</v>
       </c>
-      <c r="I6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="17"/>
+      <c r="I6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -889,44 +904,44 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12">
         <v>1000</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="11">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <v>1.177</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>1197.5975000000001</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="11">
         <v>1198</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="11">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <f t="shared" si="2"/>
         <v>1.784197111299915E-2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <f t="shared" si="3"/>
         <v>3.4197111299914817E-4</v>
       </c>
-      <c r="O7" s="17"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -938,44 +953,44 @@
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12">
         <v>1000</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="11">
         <v>1.177</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>1231.1420000000001</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="11">
         <v>1234</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="11">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="11">
         <f t="shared" si="2"/>
         <v>4.8428207306711976E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <f t="shared" si="3"/>
         <v>2.4282073067119769E-3</v>
       </c>
-      <c r="O8" s="17"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -987,44 +1002,44 @@
       <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12">
         <v>1000</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>1.177</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>1231.1420000000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1227</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="11">
         <f t="shared" si="2"/>
         <v>4.2480883602378929E-2</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f t="shared" si="3"/>
         <v>-3.5191163976210707E-3</v>
       </c>
-      <c r="O9" s="17"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1036,44 +1051,44 @@
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12">
         <v>1000</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="11">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="11">
         <v>1.177</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
         <v>1231.1420000000001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="11">
         <v>1234</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>1177</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="11">
         <f t="shared" si="2"/>
         <v>4.8428207306711976E-2</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f t="shared" si="3"/>
         <v>2.4282073067119769E-3</v>
       </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1085,40 +1100,40 @@
       <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12">
         <v>1000</v>
       </c>
-      <c r="F11" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="11">
         <v>2.75E-2</v>
       </c>
-      <c r="I11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O11" s="17"/>
+      <c r="I11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1130,44 +1145,44 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12">
         <v>10000</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="11">
         <v>1.6E-2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="11">
         <v>79.429299999999998</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
         <v>807001.68799999997</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="11">
         <v>807291</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>794293</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="11">
         <f t="shared" si="2"/>
         <v>1.6364238385583155E-2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <f t="shared" si="3"/>
         <v>3.6423838558315505E-4</v>
       </c>
-      <c r="O12" s="17"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1179,44 +1194,44 @@
       <c r="C13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12">
         <v>10000</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="11">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="11">
         <v>79.429299999999998</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>834801.94299999997</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="11">
         <v>837064</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="11">
         <f t="shared" si="1"/>
         <v>794293</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <f t="shared" si="2"/>
         <v>5.3847887366500778E-2</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <f t="shared" si="3"/>
         <v>2.8478873665007814E-3</v>
       </c>
-      <c r="O13" s="17"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1228,40 +1243,40 @@
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12">
         <v>10000</v>
       </c>
-      <c r="F14" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="17"/>
+      <c r="I14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1273,40 +1288,112 @@
       <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="12">
         <v>10000</v>
       </c>
-      <c r="F15" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="11">
         <v>2.75E-2</v>
       </c>
-      <c r="I15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="17"/>
+      <c r="I15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="E16" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I16" s="16">
+        <v>79.458500000000001</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" ref="J16:J17" si="4">E16*I16*(1+H16)</f>
+        <v>807298.36</v>
+      </c>
+      <c r="K16" s="11">
+        <v>807291</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" ref="L16:L17" si="5">E16*I16</f>
+        <v>794585</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" ref="M16:M17" si="6">(K16-L16)/L16</f>
+        <v>1.5990737303120495E-2</v>
+      </c>
+      <c r="N16" s="17">
+        <f t="shared" ref="N16:N17" si="7">M16-H16</f>
+        <v>-9.2626968795049558E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="12">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="11">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I17" s="16">
+        <v>79.458500000000001</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
+        <v>835108.83499999996</v>
+      </c>
+      <c r="K17" s="11">
+        <v>837064</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="5"/>
+        <v>794585</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="6"/>
+        <v>5.346061151418665E-2</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="7"/>
+        <v>2.460611514186653E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
